--- a/mbs-perturbation/nano/MLP/nearmiss/nano-mlp-nearmiss-results.xlsx
+++ b/mbs-perturbation/nano/MLP/nearmiss/nano-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.609375</v>
+        <v>0.9732620320855615</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5492957746478874</v>
+        <v>0.8544600938967136</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5777777777777777</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7009126409547629</v>
+        <v>0.99223377649072</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9529411764705882</v>
+        <v>0.9458128078817734</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3785046728971962</v>
+        <v>0.897196261682243</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5418060200668896</v>
+        <v>0.9208633093525179</v>
       </c>
       <c r="E3" t="n">
-        <v>0.857290158395858</v>
+        <v>0.9806063797112896</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9146341463414634</v>
+        <v>0.8829268292682927</v>
       </c>
       <c r="C4" t="n">
-        <v>0.352112676056338</v>
+        <v>0.8497652582159625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5084745762711864</v>
+        <v>0.8660287081339714</v>
       </c>
       <c r="E4" t="n">
-        <v>0.786638453569618</v>
+        <v>0.9560492847539068</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8402777777777778</v>
+        <v>0.6036036036036037</v>
       </c>
       <c r="C5" t="n">
-        <v>0.568075117370892</v>
+        <v>0.9436619718309859</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6778711484593838</v>
+        <v>0.7362637362637362</v>
       </c>
       <c r="E5" t="n">
-        <v>0.81436663801274</v>
+        <v>0.7351275099737706</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.5241935483870968</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3474178403755869</v>
+        <v>0.9154929577464789</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5156794425087108</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6696863497101544</v>
+        <v>0.6827789900592915</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.863445620117966</v>
+        <v>0.7859597642452656</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4390812162695801</v>
+        <v>0.8921153086744769</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5643217930167896</v>
+        <v>0.8199644840833784</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7657788481286267</v>
+        <v>0.8693591881977957</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/nano/MLP/nearmiss/nano-mlp-nearmiss-results.xlsx
+++ b/mbs-perturbation/nano/MLP/nearmiss/nano-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9732620320855615</v>
+        <v>0.5661538461538461</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8544600938967136</v>
+        <v>0.9484536082474226</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9099999999999999</v>
+        <v>0.7090558766859344</v>
       </c>
       <c r="E2" t="n">
-        <v>0.99223377649072</v>
+        <v>0.5314061005420343</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9458128078817734</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C3" t="n">
-        <v>0.897196261682243</v>
+        <v>0.9067357512953368</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9208633093525179</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9806063797112896</v>
+        <v>0.9858714812242935</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8829268292682927</v>
+        <v>0.7286821705426356</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8497652582159625</v>
+        <v>0.9740932642487047</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8660287081339714</v>
+        <v>0.8337028824833703</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9560492847539068</v>
+        <v>0.904559051332728</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6036036036036037</v>
+        <v>0.8625592417061612</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9436619718309859</v>
+        <v>0.9381443298969072</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7362637362637362</v>
+        <v>0.8987654320987654</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7351275099737706</v>
+        <v>0.9171518615458577</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5241935483870968</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9154929577464789</v>
+        <v>0.9742268041237113</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.8749999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6827789900592915</v>
+        <v>0.9231878638961594</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7859597642452656</v>
+        <v>0.7826102733999856</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8921153086744769</v>
+        <v>0.9483307515624165</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8199644840833784</v>
+        <v>0.8499715049202805</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8693591881977957</v>
+        <v>0.8524352717082145</v>
       </c>
     </row>
   </sheetData>
